--- a/data/georgia_census/kakheti/signagi/average_wages.xlsx
+++ b/data/georgia_census/kakheti/signagi/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E147923D-ECD3-467A-84B7-9C0BF198B2D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EEAF979-4525-4A7B-8429-771A33F3F3E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D275F6A-739D-4255-B4BD-83F56B420FFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA667F2A-4DCF-4862-8E01-5ED14A24606A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B047189-C39B-4D1B-B420-9ABBE5EBC096}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2268A36E-81DC-42DE-90A5-B688713191F0}"/>
 </file>